--- a/demo.xlsx
+++ b/demo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="149">
   <si>
     <t>1.1. Trình tự xử lý thông tin của máy tính điện tử là:</t>
   </si>
@@ -22,9 +22,6 @@
     <t>a. CPU -&gt; Đĩa cứng -&gt; Màn hình</t>
   </si>
   <si>
-    <t>b. Nhận thông tin -&gt; Xử lý thông tin -&gt; Xuất thông tin</t>
-  </si>
-  <si>
     <t>c. CPU -&gt; Bàn phím -&gt; Màn hình</t>
   </si>
   <si>
@@ -40,9 +37,6 @@
     <t>b. Trao đổi dữ liệu, Điều khiển, Thực hiện lệnh, Xử lý dữ liệu.</t>
   </si>
   <si>
-    <t>c. L­u trữ dữ liệu, Xử lý dữ liệu, Trao đổi dữ liệu, Điều khiển.</t>
-  </si>
-  <si>
     <t>d. Điều khiển, L­u trữ dữ liệu, Thực hiện phép toán, Kết nối Internet.</t>
   </si>
   <si>
@@ -58,18 +52,12 @@
     <t>c. Hệ thống nhớ, Bộ xử lý, Màn hình, Chuột</t>
   </si>
   <si>
-    <t>d. Hệ thống nhớ, Bộ xử lý, Hệ thống vào ra, Bus liên kết</t>
-  </si>
-  <si>
     <t>1.4. Bộ xử lý gồm các thành phần (không kể bus bên trong):</t>
   </si>
   <si>
     <t>a. Khối điều khiển, Các thanh ghi, Cổng vào/ra</t>
   </si>
   <si>
-    <t>b. Khối điền khiển, ALU, Các thanh ghi</t>
-  </si>
-  <si>
     <t>c. Các thanh ghi, DAC, Khối điều khiển</t>
   </si>
   <si>
@@ -88,9 +76,6 @@
     <t>c. Đĩa quang, Bộ nhớ trong</t>
   </si>
   <si>
-    <t>d. Bộ nhớ trong, Bộ nhớ ngoài</t>
-  </si>
-  <si>
     <t>1.6. Hệ thống vào/ra của máy tính không bao gồm đồng thời các thiết bị sau:</t>
   </si>
   <si>
@@ -103,18 +88,12 @@
     <t>c. CPU, Chuột, Máy quét ảnh</t>
   </si>
   <si>
-    <t>d. ROM, RAM, Các thanh ghi</t>
-  </si>
-  <si>
     <t>1.7. Trong máy tính, có các loại bus liên kết hệ thống nh­ sau:</t>
   </si>
   <si>
     <t>a. Chỉ dẫn, Chức năng, Điều khiển</t>
   </si>
   <si>
-    <t>b. Điều khiển, Dữ liệu, Địa chỉ</t>
-  </si>
-  <si>
     <t>c. Dữ liệu, Phụ thuộc, Điều khiển</t>
   </si>
   <si>
@@ -130,21 +109,9 @@
     <t>b. Xử lý số liệu, Ngắt, Thực hiện ch­ơng trình</t>
   </si>
   <si>
-    <t>c. Thực hiện ch­ơng trình, ngắt, vào/ra</t>
-  </si>
-  <si>
     <t>d. Tính toán kết quả, L­u trữ dữ liệu, vào/ra</t>
   </si>
   <si>
-    <t>b. Thanh ghi chứa lệnh sắp thực hiện</t>
-  </si>
-  <si>
-    <t>c. Thanh ghi chứa địa chỉ lệnh sắp thực hiện</t>
-  </si>
-  <si>
-    <t>d. Thanh ghi</t>
-  </si>
-  <si>
     <t>1.10. Có các loại ngắt sau trong máy tính:</t>
   </si>
   <si>
@@ -157,9 +124,6 @@
     <t>c. Ngắt mềm, ngắt NMI, ngắt cứng</t>
   </si>
   <si>
-    <t>d. Ngắt cứng, ngắt mềm, ngắt ngoại lệ</t>
-  </si>
-  <si>
     <t>1.11. Trong máy tính, ngắt NMI là:</t>
   </si>
   <si>
@@ -169,9 +133,6 @@
     <t>b. Ngắt mềm không chắn đ­ợc</t>
   </si>
   <si>
-    <t>c. Ngắt cứng không chắn đ­ợc</t>
-  </si>
-  <si>
     <t>d. Ngắt mềm chắn đ­ợc</t>
   </si>
   <si>
@@ -187,9 +148,6 @@
     <t>c. Phục vụ ngắt ngay, sau đó thực hiện ch­ơng trình</t>
   </si>
   <si>
-    <t>d. Thực hiện xong lệnh hiện tại, rồi phục vụ ngắt, cuối cùng quay lại thực hiện tiếp ch­ơng trình.</t>
-  </si>
-  <si>
     <t>1.13. Máy tính Von Newmann là máy tính:</t>
   </si>
   <si>
@@ -202,9 +160,6 @@
     <t>c. Thực hiện theo ch­ơng trình nằm sẵn bên trong bộ nhớ</t>
   </si>
   <si>
-    <t>d. Cả a và c</t>
-  </si>
-  <si>
     <t>1.14. Máy tính ENIAC là máy tính:</t>
   </si>
   <si>
@@ -217,18 +172,12 @@
     <t>c. Dùng vi mạch cỡ nhỏ và cỡ vừa</t>
   </si>
   <si>
-    <t>d. Là máy tính đầu tiên trên thế giới</t>
-  </si>
-  <si>
     <t>1.15. Đối với các tín hiệu điều khiển, phát biểu nào sau đây là sai:</t>
   </si>
   <si>
     <t>a. MEMR là tín hiệu đọc lệnh (dữ liệu) từ bộ nhớ</t>
   </si>
   <si>
-    <t>b. MEMW là tín hiệu đọc lệnh từ bộ nhớ</t>
-  </si>
-  <si>
     <t>c. IOR là tín hiệu đọc dữ liệu từ cổng vào ra</t>
   </si>
   <si>
@@ -238,9 +187,6 @@
     <t>1.16. Phát biểu nào sau đây là đúng:</t>
   </si>
   <si>
-    <t>a. INTR là tín hiệu cứng chắn đ­ợc</t>
-  </si>
-  <si>
     <t>b. INTR là tín hiệu ngắt mềm</t>
   </si>
   <si>
@@ -259,9 +205,6 @@
     <t>b. INTA là tín hiệu gửi từ bộ xử lý ra ngoài</t>
   </si>
   <si>
-    <t>c. INTA là tín hiệu từ bên ngoài yêu cầu ngắt CPU</t>
-  </si>
-  <si>
     <t>d. Cả a và b đều đúng</t>
   </si>
   <si>
@@ -277,15 +220,9 @@
     <t>c. HOLD là tín hiệu điều khiển xin ngắt</t>
   </si>
   <si>
-    <t>d. HOLD là tín hiệu từ bên ngoài xin CPU nh­ờng bus</t>
-  </si>
-  <si>
     <t>1.19. Phát biểu nào sau đây là đúng:</t>
   </si>
   <si>
-    <t>a. HLDA là tín hiệu CPU chấp nhận nh­ờng bus</t>
-  </si>
-  <si>
     <t>b. HLDA là tín hiệu CPU không chấp nhận nh­ờng bus</t>
   </si>
   <si>
@@ -301,9 +238,6 @@
     <t>a. 5 thế hệ</t>
   </si>
   <si>
-    <t>b. 4 thế hệ</t>
-  </si>
-  <si>
     <t>c. 3 thế hệ</t>
   </si>
   <si>
@@ -337,9 +271,6 @@
     <t>1.23. Theo luật Moore, số l­ợng transistor sẽ tăng gấp đôi sau mỗi:</t>
   </si>
   <si>
-    <t>c. 18 tháng</t>
-  </si>
-  <si>
     <t>d. 16 tháng</t>
   </si>
   <si>
@@ -364,9 +295,6 @@
     <t>c. Ghi lệnh ra ngăn nhớ</t>
   </si>
   <si>
-    <t>d. Ghi dữ liệu ra ngăn nhớ</t>
-  </si>
-  <si>
     <t>1.26. Tín hiệu điều khiển IOR là tín hiệu:</t>
   </si>
   <si>
@@ -388,9 +316,6 @@
     <t>1.28. Tín hiệu điều khiển INTR là tín hiệu:</t>
   </si>
   <si>
-    <t>a. Từ bên ngoài gửi đến CPU xin ngắt</t>
-  </si>
-  <si>
     <t>b. Từ CPU gửi ra ngoài xin ngắt</t>
   </si>
   <si>
@@ -424,132 +349,18 @@
     <t>b. CPU gửi ra ngoài xin dùng bus</t>
   </si>
   <si>
-    <t>c. Từ bên ngoài gửi đến CPU xin dùng bus</t>
-  </si>
-  <si>
     <t>d. Từ bên ngoài gửi đến CPU trả lời không dùng bus</t>
   </si>
   <si>
     <t>1.31. Tín hiệu điều khiển HLDA là tín hiệu:</t>
   </si>
   <si>
-    <t>d. CPU trả lời đồng ý nh­ờng bus</t>
-  </si>
-  <si>
-    <t>a. Là tín hiệu do CPU phát ra</t>
-  </si>
-  <si>
-    <t>b. Là tín hiệu điều khiển truy nhập bộ nhớ</t>
-  </si>
-  <si>
-    <t>c. Là tín hiệu điều khiển ghi</t>
-  </si>
-  <si>
-    <t>d. Là tín hiệu điều khiển đọc</t>
-  </si>
-  <si>
-    <t>1.33. Với tín hiệu điều khiển MEMW, phát biểu nào sau đây là sai:</t>
-  </si>
-  <si>
-    <t>b. Là tín hiệu do bên ngoài gửi đến CPU</t>
-  </si>
-  <si>
-    <t>c. Không phải là tín hiệu truy nhập cổng vào/ra</t>
-  </si>
-  <si>
-    <t>d. Là tín hiệu điều khiển ghi</t>
-  </si>
-  <si>
-    <t>1.34. Với tín hiệu điều khiển IOR, phát biểu nào sau đây là sai:</t>
-  </si>
-  <si>
-    <t>a. Là tín hiệu điều khiển truy nhập cổng vào/ra</t>
-  </si>
-  <si>
-    <t>b. Là tín hiệu điều khiển do CPU phát ra</t>
-  </si>
-  <si>
-    <t>c. Là tín hiệu điều khiển đọc</t>
-  </si>
-  <si>
-    <t>d. Là tín hiệu điều khiển truy nhập CPU</t>
-  </si>
-  <si>
-    <t>1.35. Với tín hiệu điều khiển IOW, phát biểu nào sau đây là sai:</t>
-  </si>
-  <si>
-    <t>a. Là tín hiệu từ bên ngoài xin ngắt cổng vào/ra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b. Là tín hiệu điều khiển do CPU phát ra </t>
-  </si>
-  <si>
-    <t>d. Là tín hiệu điều khiển ghi dữ liệu</t>
-  </si>
-  <si>
-    <t>1.36. Với tín hiệu điều khiển INTR, phát biểu nào sau đây là sai:</t>
-  </si>
-  <si>
-    <t>a. Là tín hiệu điều khiển từ bên ngoài gửi đến CPU</t>
-  </si>
-  <si>
-    <t>c. Là tín hiệu yêu cầu ngắt</t>
-  </si>
-  <si>
-    <t>a. Là tín hiệu chấp nhận ngắt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c. Là tín hiệu điều khiển ghi cổng vào/ra </t>
-  </si>
-  <si>
-    <t>d. Là tín hiệu điều khiển xử lý ngắt</t>
-  </si>
-  <si>
-    <t>1.38. Với tín hiệu điều khiển NMI, phát biểu nào sau đây là sai:</t>
-  </si>
-  <si>
-    <t>c. Là tín hiệu ngắt không chắn đ­ợc</t>
-  </si>
-  <si>
-    <t>d. CPU không thể từ chối tín hiệu này</t>
-  </si>
-  <si>
-    <t>1.39. Với tín hiệu điều khiển HOLD, phát biểu nào sau đây là sai:</t>
-  </si>
-  <si>
-    <t>c. Là tín hiệu xin nh­ờng bus</t>
-  </si>
-  <si>
-    <t>1.40. Với tín hiệu điều khiển HLDA, phát biểu nào sau đây là sai:</t>
-  </si>
-  <si>
-    <t>a. Là tín hiệu trả lời của CPU</t>
-  </si>
-  <si>
-    <t>b. Là tín hiệu đồng ý nh­ờng bus</t>
-  </si>
-  <si>
-    <t>d. Không phải là tín hiệu xin ngắt từ bên ngoài</t>
-  </si>
-  <si>
-    <t>1.41. Theo cách phân loại truyền thống, có các loại máy tính sau đây:</t>
-  </si>
-  <si>
-    <t>b. Máy tính xách tay, máy tính lớn, máy tính để bàn, máy vi tính, siêu máy tính</t>
-  </si>
-  <si>
-    <t>c. Máy tính xách tay, máy tính mini, máy tính lớn, siêu máy tính, máy chủ</t>
-  </si>
-  <si>
     <t>1.42. Theo cách phân loại hiện đại, có các loại máy tính sau đây:</t>
   </si>
   <si>
     <t>a. Máy tính để bàn, máy tính lớn, máy tính nhúng</t>
   </si>
   <si>
-    <t>b. Máy tính để bàn, máy chủ, máy tính nhúng</t>
-  </si>
-  <si>
     <t>d. Máy tính mini, máy tính nhúng, siêu máy tính</t>
   </si>
   <si>
@@ -557,25 +368,112 @@
   </si>
   <si>
     <t>b. 22 tháng</t>
+  </si>
+  <si>
+    <t>b. Nhận thông tin -&gt; Xử lý thông tin -&gt; Xuất thông tin*</t>
+  </si>
+  <si>
+    <t>c. L­u trữ dữ liệu, Xử lý dữ liệu, Trao đổi dữ liệu, Điều khiển.*</t>
+  </si>
+  <si>
+    <t>d. Hệ thống nhớ, Bộ xử lý, Hệ thống vào ra, Bus liên kết*</t>
+  </si>
+  <si>
+    <t>b. Khối điền khiển, ALU, Các thanh ghi*</t>
+  </si>
+  <si>
+    <t>d. Bộ nhớ trong, Bộ nhớ ngoài*</t>
+  </si>
+  <si>
+    <t>d. ROM, RAM, Các thanh ghi*</t>
+  </si>
+  <si>
+    <t>d. Ghi dữ liệu ra TBNV*</t>
+  </si>
+  <si>
+    <t>a. Từ bên ngoài gửi đến CPU xin ngắt*</t>
+  </si>
+  <si>
+    <t>b. CPU trả lời chấp nhận ngắt*</t>
+  </si>
+  <si>
+    <t>b. Máy tính để bàn, máy chủ, máy tính nhúng*</t>
+  </si>
+  <si>
+    <t>c. Máy chủ máy tính nhúng, siêu máy tính</t>
+  </si>
+  <si>
+    <t>b. Điều khiển, Dữ liệu, Địa chỉ*</t>
+  </si>
+  <si>
+    <t>c. Thực hiện ch­ơng trình, ngắt, vào/ra*</t>
+  </si>
+  <si>
+    <t>d. Ngắt cứng, ngắt mềm, ngắt ngoại lệ*</t>
+  </si>
+  <si>
+    <t>c. Ngắt cứng không chắn đ­ợc*</t>
+  </si>
+  <si>
+    <t>d. Thực hiện xong lệnh hiện tại, rồi phục vụ ngắt, cuối cùng quay lại thực hiện tiếp ch­ơng trình.*</t>
+  </si>
+  <si>
+    <t>c. Từ bên ngoài gửi đến CPU xin dùng bus*</t>
+  </si>
+  <si>
+    <t>d. CPU trả lời đồng ý nh­ờng bus*</t>
+  </si>
+  <si>
+    <t>d. Ghi dữ liệu ra ngăn nhớ*</t>
+  </si>
+  <si>
+    <t>a. Đọc lệnh/dữ liệu từ ngăn nhớ*</t>
+  </si>
+  <si>
+    <t>c. 18 tháng*</t>
+  </si>
+  <si>
+    <t>b. Thế hệ thứ ba dùng transistor*</t>
+  </si>
+  <si>
+    <t>c. Thế hệ thứ nhất dùng đèn điện tử chân không*</t>
+  </si>
+  <si>
+    <t>b. 4 thế hệ*</t>
+  </si>
+  <si>
+    <t>a. HLDA là tín hiệu CPU chấp nhận nh­ờng bus*</t>
+  </si>
+  <si>
+    <t>d. HOLD là tín hiệu từ bên ngoài xin CPU nh­ờng bus*</t>
+  </si>
+  <si>
+    <t>c. INTA là tín hiệu từ bên ngoài yêu cầu ngắt CPU*</t>
+  </si>
+  <si>
+    <t>a. INTR là tín hiệu cứng chắn đ­ợc*</t>
+  </si>
+  <si>
+    <t>b. MEMW là tín hiệu đọc lệnh từ bộ nhớ*</t>
+  </si>
+  <si>
+    <t>d. Là máy tính đầu tiên trên thế giới*</t>
+  </si>
+  <si>
+    <t>d. Cả a và c*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
@@ -610,15 +508,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
@@ -925,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A197"/>
+  <dimension ref="A1:A155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,968 +843,767 @@
     </row>
     <row r="3" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>40</v>
+      <c r="A41" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
+      <c r="A45" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>47</v>
+      <c r="A48" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>48</v>
+      <c r="A49" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>51</v>
+      <c r="A52" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>59</v>
+      <c r="A60" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>62</v>
+      <c r="A63" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>64</v>
+      <c r="A65" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>70</v>
+      <c r="A71" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>71</v>
+      <c r="A72" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>74</v>
+      <c r="A75" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>78</v>
+      <c r="A79" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>81</v>
+      <c r="A82" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>84</v>
+      <c r="A85" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>86</v>
+      <c r="A87" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>87</v>
+      <c r="A88" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>89</v>
+      <c r="A90" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>92</v>
+      <c r="A93" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>95</v>
+      <c r="A96" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>98</v>
+      <c r="A99" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>101</v>
+      <c r="A102" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>102</v>
+      <c r="A103" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-    </row>
-    <row r="106" spans="1:1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>100</v>
+      <c r="A108" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>101</v>
+      <c r="A109" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="112" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>106</v>
+      <c r="A112" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>179</v>
+        <v>88</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>107</v>
+      <c r="A115" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>110</v>
+      <c r="A118" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>112</v>
+      <c r="A120" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>111</v>
+      <c r="A124" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>116</v>
+      <c r="A126" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>120</v>
+      <c r="A132" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>119</v>
+      <c r="A136" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>129</v>
+      <c r="A153" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>178</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
